--- a/Poster/mz_poster_files/plot_data.xlsx
+++ b/Poster/mz_poster_files/plot_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matth\Desktop\Github Files\SIOP-poster\Poster\mz_poster_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brenton\GitHub\DataSci-hw\SIOP-poster\Poster\mz_poster_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD77D44-6B62-4D1C-9F5B-17635C3F58C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41836FAD-9F29-4D16-AAF0-3ABE2A864A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3770" windowWidth="21600" windowHeight="11270" xr2:uid="{055D42C6-4998-4F2B-A91E-70F7D179047E}"/>
+    <workbookView xWindow="64740" yWindow="14085" windowWidth="19605" windowHeight="14505" xr2:uid="{055D42C6-4998-4F2B-A91E-70F7D179047E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,16 +427,16 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -459,7 +459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -479,10 +479,10 @@
         <v>0.7</v>
       </c>
       <c r="G2">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -505,7 +505,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -528,7 +528,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -551,7 +551,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -574,7 +574,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>12</v>
       </c>
